--- a/results/prediction/chg_RNeg_LNeg/reg_neg_look_neg/negative_clusters_k50.xlsx
+++ b/results/prediction/chg_RNeg_LNeg/reg_neg_look_neg/negative_clusters_k50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Hemisphere</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Unknown</t>
   </si>
   <si>
+    <t>Middle_Frontal_Gyrus</t>
+  </si>
+  <si>
     <t>Uncus</t>
   </si>
   <si>
@@ -70,13 +73,13 @@
     <t>Superior_Frontal_Gyrus</t>
   </si>
   <si>
+    <t>Cingulate_Gyrus</t>
+  </si>
+  <si>
     <t>Superior_Temporal_Gyrus</t>
   </si>
   <si>
     <t>Sub_Gyral</t>
-  </si>
-  <si>
-    <t>Middle_Frontal_Gyrus</t>
   </si>
   <si>
     <t>Supramarginal_Gyrus</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +498,7 @@
         <v>-2</v>
       </c>
       <c r="F2">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="G2">
         <v>-17.97</v>
@@ -518,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G3">
         <v>-17.51</v>
@@ -526,48 +529,48 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>-16</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>-20</v>
       </c>
       <c r="E4">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="F4">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G4">
-        <v>-14.07</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>-16</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>-20</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>-12.8</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -575,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -587,7 +590,7 @@
         <v>-26</v>
       </c>
       <c r="F6">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="G6">
         <v>-12.42</v>
@@ -598,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>-2</v>
@@ -610,7 +613,7 @@
         <v>-20</v>
       </c>
       <c r="F7">
-        <v>999</v>
+        <v>1120</v>
       </c>
       <c r="G7">
         <v>-12.09</v>
@@ -633,7 +636,7 @@
         <v>60</v>
       </c>
       <c r="F8">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G8">
         <v>-11.58</v>
@@ -644,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>-16</v>
@@ -656,7 +659,7 @@
         <v>-18</v>
       </c>
       <c r="F9">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>-10.56</v>
@@ -667,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>-42</v>
@@ -679,7 +682,7 @@
         <v>-26</v>
       </c>
       <c r="F10">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G10">
         <v>-10.54</v>
@@ -690,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>44</v>
@@ -713,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>54</v>
@@ -725,7 +728,7 @@
         <v>-4</v>
       </c>
       <c r="F12">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G12">
         <v>-9.81</v>
@@ -748,7 +751,7 @@
         <v>64</v>
       </c>
       <c r="F13">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G13">
         <v>-9.34</v>
@@ -756,94 +759,94 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-98</v>
+        <v>-12</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="G14">
-        <v>-8.859999999999999</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>-44</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>-98</v>
       </c>
       <c r="E15">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="G15">
-        <v>-8.699999999999999</v>
+        <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>-44</v>
       </c>
       <c r="D16">
-        <v>-86</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="F16">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="G16">
-        <v>-8.59</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>-86</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>-28</v>
       </c>
       <c r="F17">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>-8.51</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -851,22 +854,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="G18">
-        <v>-8.5</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -874,22 +877,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>-46</v>
+        <v>-52</v>
       </c>
       <c r="D19">
-        <v>-62</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F19">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>-8.49</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -897,45 +900,45 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>-32</v>
+        <v>-46</v>
       </c>
       <c r="D20">
-        <v>-94</v>
+        <v>-62</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F20">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="G20">
-        <v>-8.4</v>
+        <v>-8.49</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>-32</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>-94</v>
       </c>
       <c r="E21">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="G21">
-        <v>-8.16</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -943,22 +946,22 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>-44</v>
+        <v>64</v>
       </c>
       <c r="F22">
-        <v>468</v>
+        <v>167</v>
       </c>
       <c r="G22">
-        <v>-7.74</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -966,45 +969,45 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>-60</v>
+        <v>-26</v>
       </c>
       <c r="D23">
-        <v>-56</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>-32</v>
       </c>
       <c r="F23">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G23">
-        <v>-7.35</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>-52</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E24">
-        <v>-20</v>
+        <v>-44</v>
       </c>
       <c r="F24">
-        <v>255</v>
+        <v>493</v>
       </c>
       <c r="G24">
-        <v>-7.33</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1012,45 +1015,45 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>-52</v>
+        <v>-8</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>-58</v>
       </c>
       <c r="E25">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>-7.04</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>-60</v>
       </c>
       <c r="D26">
         <v>-56</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F26">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G26">
-        <v>-6.95</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1058,45 +1061,45 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="D27">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E27">
-        <v>46</v>
+        <v>-20</v>
       </c>
       <c r="F27">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="G27">
-        <v>-6.86</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>-42</v>
       </c>
       <c r="D28">
-        <v>-62</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G28">
-        <v>-6.46</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1104,22 +1107,22 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>-56</v>
+        <v>-52</v>
       </c>
       <c r="D29">
-        <v>-48</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="G29">
-        <v>-6.36</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1127,44 +1130,136 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>-56</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G30">
-        <v>-6.06</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>-50</v>
+      </c>
+      <c r="D31">
+        <v>-6</v>
+      </c>
+      <c r="E31">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>109</v>
+      </c>
+      <c r="G31">
+        <v>-6.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>-62</v>
+      </c>
+      <c r="E32">
+        <v>-40</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>-6.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>-56</v>
+      </c>
+      <c r="D33">
+        <v>-48</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>64</v>
+      </c>
+      <c r="G33">
+        <v>-6.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>-8</v>
+      </c>
+      <c r="F34">
+        <v>57</v>
+      </c>
+      <c r="G34">
+        <v>-6.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
         <v>18</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>-20</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <v>70</v>
       </c>
-      <c r="F31">
-        <v>57</v>
-      </c>
-      <c r="G31">
+      <c r="F35">
+        <v>58</v>
+      </c>
+      <c r="G35">
         <v>-5.79</v>
       </c>
     </row>
